--- a/output/NhiPatient.xlsx
+++ b/output/NhiPatient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -368,26 +368,20 @@
 </t>
   </si>
   <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -798,7 +792,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
+pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/scopedRole[classCode=CON]</t>
@@ -811,6 +805,9 @@
   </si>
   <si>
     <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -967,8 +964,8 @@
     <t>Many clinical systems are extended to care for animal patients as well as human.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>player[classCode=ANM]</t>
@@ -1390,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2697,24 +2694,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -2723,13 +2720,13 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2779,7 +2776,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2811,11 +2808,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2828,24 +2825,24 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="I13" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
       </c>
@@ -2881,19 +2878,17 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2908,16 +2903,16 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2925,18 +2920,22 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -2948,24 +2947,24 @@
         <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>44</v>
@@ -2995,17 +2994,19 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3020,16 +3021,16 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -3037,22 +3038,22 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
@@ -3064,24 +3065,26 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>44</v>
@@ -3123,7 +3126,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3138,16 +3141,16 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3155,49 +3158,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D16" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
@@ -3243,13 +3242,13 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3258,16 +3257,16 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3275,7 +3274,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3286,34 +3285,34 @@
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -3359,13 +3358,13 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
@@ -3374,16 +3373,16 @@
         <v>44</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3391,7 +3390,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3414,19 +3413,19 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3475,7 +3474,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3490,16 +3489,16 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3507,7 +3506,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3518,7 +3517,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
@@ -3530,19 +3529,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3567,13 +3566,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3591,13 +3590,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -3606,16 +3605,16 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3623,15 +3622,17 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -3646,19 +3647,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3683,13 +3684,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -3707,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3722,34 +3723,32 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D21" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>52</v>
@@ -3761,23 +3760,19 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3825,7 +3820,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3840,24 +3835,24 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3868,7 +3863,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -3880,13 +3875,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3925,16 +3920,14 @@
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>188</v>
@@ -3943,7 +3936,7 @@
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -3969,9 +3962,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3980,7 +3975,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -3992,13 +3987,13 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4037,17 +4032,19 @@
         <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4056,13 +4053,13 @@
         <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4079,11 +4076,9 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4104,13 +4099,13 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4161,22 +4156,22 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4193,7 +4188,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4210,22 +4205,26 @@
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4288,16 +4287,16 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4305,7 +4304,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4316,31 +4315,31 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4389,13 +4388,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4404,16 +4403,16 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4421,7 +4420,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4432,7 +4431,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4441,22 +4440,20 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4481,13 +4478,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4505,13 +4502,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4520,16 +4517,16 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4537,7 +4534,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4560,17 +4557,19 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4595,13 +4594,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4619,7 +4618,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4634,16 +4633,16 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4651,7 +4650,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4662,7 +4661,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4674,19 +4673,17 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4735,13 +4732,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4750,16 +4747,16 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4778,7 +4775,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4790,17 +4787,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4849,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4861,19 +4860,19 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4881,7 +4880,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4892,7 +4891,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -4904,20 +4903,16 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4965,25 +4960,25 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -5001,14 +4996,14 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -5020,15 +5015,17 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5083,7 +5080,7 @@
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5092,7 +5089,7 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5109,39 +5106,39 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5191,7 +5188,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5206,7 +5203,7 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5223,41 +5220,41 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5281,13 +5278,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5320,16 +5317,16 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5337,7 +5334,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5348,7 +5345,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5360,17 +5357,17 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5395,13 +5392,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5419,13 +5416,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5434,16 +5431,16 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5462,7 +5459,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5474,17 +5471,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5533,13 +5532,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5548,16 +5547,16 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5565,7 +5564,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5576,7 +5575,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5588,19 +5587,17 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5649,13 +5646,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5664,16 +5661,16 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5681,7 +5678,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5692,7 +5689,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5704,17 +5701,17 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5739,13 +5736,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5763,7 +5760,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5778,16 +5775,16 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5795,7 +5792,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5806,7 +5803,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -5818,17 +5815,17 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5853,13 +5850,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5877,7 +5874,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5886,22 +5883,22 @@
         <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5909,7 +5906,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5920,7 +5917,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -5932,18 +5929,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -5991,7 +5986,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6000,22 +5995,22 @@
         <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6023,7 +6018,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6034,28 +6029,32 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6115,13 +6114,13 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
@@ -6135,7 +6134,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6146,32 +6145,28 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6219,7 +6214,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6231,13 +6226,13 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -6255,14 +6250,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6274,15 +6269,17 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6337,7 +6334,7 @@
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6346,7 +6343,7 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6367,35 +6364,35 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6445,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6460,7 +6457,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6481,37 +6478,39 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6535,13 +6534,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6559,13 +6558,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6574,16 +6573,16 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6591,7 +6590,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6602,7 +6601,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6614,19 +6613,19 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6651,13 +6650,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6675,10 +6674,10 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>52</v>
@@ -6690,16 +6689,16 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6707,7 +6706,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6718,7 +6717,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6730,19 +6729,17 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6767,13 +6764,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6791,7 +6788,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6806,16 +6803,16 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6823,7 +6820,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6834,7 +6831,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6843,20 +6840,22 @@
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -6881,13 +6880,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -6905,31 +6904,31 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6937,7 +6936,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6948,7 +6947,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -6960,20 +6959,16 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7021,25 +7016,25 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -7057,14 +7052,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -7076,15 +7071,17 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7139,7 +7136,7 @@
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7148,7 +7145,7 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7169,35 +7166,35 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7247,7 +7244,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7262,7 +7259,7 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
@@ -7283,37 +7280,39 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>255</v>
+        <v>343</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7337,13 +7336,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7361,13 +7360,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7376,16 +7375,16 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>346</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7393,7 +7392,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7404,7 +7403,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7416,19 +7415,19 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7453,13 +7452,13 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
@@ -7477,10 +7476,10 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>52</v>
@@ -7492,16 +7491,16 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7509,18 +7508,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7532,20 +7531,18 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7593,13 +7590,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7608,16 +7605,16 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>356</v>
+        <v>140</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7625,18 +7622,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7645,21 +7642,23 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7707,13 +7706,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -7722,16 +7721,16 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7739,7 +7738,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7750,31 +7749,31 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -7823,25 +7822,25 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
@@ -7855,7 +7854,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7866,32 +7865,28 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -7939,25 +7934,25 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -7975,14 +7970,14 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -7994,15 +7989,17 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8057,7 +8054,7 @@
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8066,7 +8063,7 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8087,35 +8084,35 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8165,7 +8162,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8180,7 +8177,7 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8201,35 +8198,35 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>114</v>
+        <v>384</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8279,13 +8276,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8294,16 +8291,16 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8311,7 +8308,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8319,10 +8316,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8334,17 +8331,15 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>382</v>
+        <v>71</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8369,13 +8364,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8393,7 +8388,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>52</v>
@@ -8408,135 +8403,23 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>125</v>
+        <v>390</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN62" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8546,7 +8429,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/NhiPatient.xlsx
+++ b/output/NhiPatient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="393">
   <si>
     <t>Path</t>
   </si>
@@ -358,14 +358,25 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>placeOfBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.nz/fhir/StructureDefinition/patient-birthplace]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>nzcitizenship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.nz/fhir/StructureDefinition/patient-nzcitizenship]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>placeOfBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthPlace]]} {[]}
-</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -616,10 +627,6 @@
   <si>
     <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.nz/fhir/StructureDefinition/informationsource]]} {[]}
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>
@@ -1387,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1397,7 +1404,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="9.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2608,10 +2615,10 @@
         <v>110</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2671,13 +2678,13 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>44</v>
@@ -2694,40 +2701,40 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2776,7 +2783,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2785,10 +2792,10 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>95</v>
@@ -2808,11 +2815,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2825,24 +2832,24 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>44</v>
       </c>
@@ -2878,17 +2885,19 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2903,16 +2912,16 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2920,22 +2929,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -2947,24 +2952,24 @@
         <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>44</v>
@@ -2994,19 +2999,17 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3021,16 +3024,16 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -3038,7 +3041,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>129</v>
@@ -3050,10 +3053,10 @@
         <v>129</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
@@ -3065,26 +3068,24 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>44</v>
@@ -3126,7 +3127,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3141,16 +3142,16 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3158,45 +3159,49 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
@@ -3242,13 +3247,13 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3257,16 +3262,16 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3274,7 +3279,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3285,34 +3290,34 @@
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -3358,31 +3363,31 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3390,7 +3395,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3413,19 +3418,19 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3474,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3489,16 +3494,16 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3506,7 +3511,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3517,7 +3522,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
@@ -3529,19 +3534,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3566,13 +3571,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3590,31 +3595,31 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3622,17 +3627,15 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D20" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -3647,19 +3650,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3684,13 +3687,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -3708,7 +3711,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3723,32 +3726,34 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>52</v>
@@ -3760,19 +3765,23 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3835,24 +3844,24 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3863,7 +3872,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -3875,13 +3884,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3920,23 +3929,25 @@
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -3962,11 +3973,9 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -3987,13 +3996,13 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4032,19 +4041,17 @@
         <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4053,13 +4060,13 @@
         <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4076,9 +4083,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4102,10 +4111,10 @@
         <v>193</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4156,22 +4165,22 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4188,7 +4197,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4205,26 +4214,22 @@
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4287,16 +4292,16 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4304,7 +4309,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4315,31 +4320,31 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4388,31 +4393,31 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4420,7 +4425,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4431,7 +4436,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4440,20 +4445,22 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4478,13 +4485,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4502,31 +4509,31 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4534,7 +4541,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4557,19 +4564,17 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4594,13 +4599,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4618,7 +4623,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4633,16 +4638,16 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4650,7 +4655,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4661,7 +4666,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4673,17 +4678,19 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4732,31 +4739,31 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4764,7 +4771,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4787,19 +4794,17 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4848,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4860,19 +4865,19 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4880,7 +4885,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4891,7 +4896,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -4903,16 +4908,20 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4960,25 +4969,25 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -4996,14 +5005,14 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -5015,17 +5024,15 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5074,13 +5081,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5089,7 +5096,7 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5106,11 +5113,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5123,22 +5130,22 @@
         <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5188,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5203,7 +5210,7 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5220,11 +5227,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5237,24 +5244,24 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5278,13 +5285,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5302,7 +5309,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5317,16 +5324,16 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5334,7 +5341,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5345,7 +5352,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5357,17 +5364,17 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5392,13 +5399,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5416,31 +5423,31 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5448,7 +5455,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5459,7 +5466,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5471,19 +5478,17 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5532,13 +5537,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5547,16 +5552,16 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5564,7 +5569,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5575,7 +5580,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5587,17 +5592,19 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5646,13 +5653,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5661,16 +5668,16 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5678,7 +5685,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5701,17 +5708,17 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5736,13 +5743,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5760,7 +5767,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5775,16 +5782,16 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5792,7 +5799,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5815,17 +5822,17 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5850,13 +5857,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5874,7 +5881,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5883,22 +5890,22 @@
         <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5906,7 +5913,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5929,16 +5936,18 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -5986,7 +5995,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5995,22 +6004,22 @@
         <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6018,7 +6027,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6035,26 +6044,22 @@
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6102,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6114,13 +6119,13 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
@@ -6134,7 +6139,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6151,22 +6156,26 @@
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6226,13 +6235,13 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -6246,18 +6255,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6269,17 +6278,15 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6328,13 +6335,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6343,7 +6350,7 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6360,11 +6367,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6377,22 +6384,22 @@
         <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6442,7 +6449,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6457,7 +6464,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6474,43 +6481,41 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6534,13 +6539,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6558,13 +6563,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6573,16 +6578,16 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6590,7 +6595,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6598,7 +6603,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>52</v>
@@ -6613,19 +6618,19 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6650,13 +6655,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6674,10 +6679,10 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>52</v>
@@ -6689,16 +6694,16 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6706,7 +6711,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6729,17 +6734,19 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6764,13 +6771,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6788,7 +6795,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6803,16 +6810,16 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6820,7 +6827,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6831,7 +6838,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6840,22 +6847,20 @@
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -6880,13 +6885,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -6904,31 +6909,31 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>143</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6936,7 +6941,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6947,7 +6952,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -6959,16 +6964,20 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7016,25 +7025,25 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -7048,18 +7057,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -7071,17 +7080,15 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7130,13 +7137,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7145,7 +7152,7 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7162,11 +7169,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7179,22 +7186,22 @@
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7244,7 +7251,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7259,7 +7266,7 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
@@ -7276,43 +7283,41 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>342</v>
+        <v>116</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7336,13 +7341,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7360,13 +7365,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7375,16 +7380,16 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7392,7 +7397,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7400,7 +7405,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>52</v>
@@ -7415,19 +7420,19 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7452,13 +7457,13 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
@@ -7476,10 +7481,10 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>52</v>
@@ -7491,16 +7496,16 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7508,18 +7513,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>358</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7531,18 +7536,20 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7590,31 +7597,31 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7622,18 +7629,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7642,23 +7649,21 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7706,31 +7711,31 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7738,7 +7743,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7749,31 +7754,31 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -7822,25 +7827,25 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>140</v>
+        <v>372</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
@@ -7854,7 +7859,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7865,28 +7870,32 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>184</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -7934,25 +7943,25 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>378</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -7966,18 +7975,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -7989,17 +7998,15 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>115</v>
-      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8048,13 +8055,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8063,7 +8070,7 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8080,11 +8087,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8097,22 +8104,22 @@
         <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8162,7 +8169,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8177,7 +8184,7 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8194,39 +8201,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>381</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>116</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>256</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8276,13 +8283,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8291,16 +8298,16 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8308,7 +8315,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8331,15 +8338,17 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8364,13 +8373,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8388,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>52</v>
@@ -8403,23 +8412,135 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8429,7 +8550,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
